--- a/readme/DataBase.xlsx
+++ b/readme/DataBase.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_code\assignmentAndroid\readme\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD77E9D-21C9-4CD8-9C23-7761D589F665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,94 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+  <si>
+    <t>TableName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Picture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrimaryKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notnull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -37,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -45,15 +131,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +479,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/readme/DataBase.xlsx
+++ b/readme/DataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_code\assignmentAndroid\readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD77E9D-21C9-4CD8-9C23-7761D589F665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D5B470-B144-4198-9CEC-BFA44EEB4DD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="888" windowWidth="17472" windowHeight="10668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,46 @@
   </si>
   <si>
     <t>Notnull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photoId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pressure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -187,9 +227,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -199,7 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -480,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -496,24 +537,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -530,35 +571,35 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
@@ -571,19 +612,89 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1"/>
+      <c r="D8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:A7"/>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
